--- a/Counterbalancing pilot score comparison.xlsx
+++ b/Counterbalancing pilot score comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maana\Documents\GitHub\TalkingHeads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6089A867-3862-4675-B631-C3B237B62756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6632149C-9C6C-47D3-8BBE-5F3D8C8A5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5365F185-333B-4E87-900F-17D2C473DACE}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{5365F185-333B-4E87-900F-17D2C473DACE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>subject Id</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>counterpilot_2</t>
+  </si>
+  <si>
+    <t>mastertest5</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B14DFC2-87C1-42C0-8DB8-A8CB60B3B2B2}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,6 +518,34 @@
         <v>98.3333333333333</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>85</v>
+      </c>
+      <c r="D4">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="E4">
+        <v>73.3333333333333</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B4:C4)/2</f>
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <f>SUM(D4:E4)/2</f>
+        <v>57.49999999999995</v>
+      </c>
+      <c r="H4">
+        <v>68.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
